--- a/art55/incisos/b/FB1fiscalizacion2025.xlsx
+++ b/art55/incisos/b/FB1fiscalizacion2025.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo-8\Desktop\FORMATOS 2025 OBLIGACIONES finales uf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo-8\Desktop\TRANSPARENCIA\UF\art19\incisos\b\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="10080" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
-    <sheet name="Hidden_1" sheetId="2" r:id="rId2"/>
-    <sheet name="Hidden_2" sheetId="3" r:id="rId3"/>
-    <sheet name="Hidden_3" sheetId="4" r:id="rId4"/>
-    <sheet name="Hidden_4" sheetId="5" r:id="rId5"/>
-    <sheet name="Tabla_451143" sheetId="6" r:id="rId6"/>
-    <sheet name="Hidden_1_Tabla_451143" sheetId="7" r:id="rId7"/>
-    <sheet name="Hidden_2_Tabla_451143" sheetId="8" r:id="rId8"/>
-    <sheet name="Hidden_3_Tabla_451143" sheetId="9" r:id="rId9"/>
+    <sheet name="Hoja1" sheetId="10" r:id="rId2"/>
+    <sheet name="Hidden_1" sheetId="2" r:id="rId3"/>
+    <sheet name="Hidden_2" sheetId="3" r:id="rId4"/>
+    <sheet name="Hidden_3" sheetId="4" r:id="rId5"/>
+    <sheet name="Hidden_4" sheetId="5" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="11" r:id="rId7"/>
+    <sheet name="Hoja3" sheetId="12" r:id="rId8"/>
+    <sheet name="Tabla_451143" sheetId="6" r:id="rId9"/>
+    <sheet name="Hidden_1_Tabla_451143" sheetId="7" r:id="rId10"/>
+    <sheet name="Hidden_2_Tabla_451143" sheetId="8" r:id="rId11"/>
+    <sheet name="Hidden_3_Tabla_451143" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Hidden_1_Tabla_4511431">Hidden_1_Tabla_451143!$A$1:$A$2</definedName>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="130">
   <si>
     <t>49838</t>
   </si>
@@ -424,6 +427,9 @@
   </si>
   <si>
     <t>Cardenista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                  30/09/2025</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -538,6 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -825,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I33" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,38 +862,38 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -977,22 +984,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2790,6 +2797,1176 @@
         <v>45856</v>
       </c>
       <c r="N52" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B53" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="L53" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M53" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B54" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="L54" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M54" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B55" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="L55" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M55" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B56" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="L56" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M56" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B57" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="L57" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M57" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B58" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="L58" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M58" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B59" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="L59" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M59" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B60" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="L60" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M60" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B61" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="L61" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M61" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B62" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="L62" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M62" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="L63" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M63" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B64" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="L64" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M64" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B65" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="L65" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M65" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B66" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="L66" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M66" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B67" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="L67" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M67" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B68" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="L68" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M68" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B69" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J69" s="6"/>
+      <c r="L69" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M69" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B70" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="L70" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M70" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B71" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J71" s="6"/>
+      <c r="L71" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M71" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B72" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J72" s="6"/>
+      <c r="L72" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M72" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B73" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="L73" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M73" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B74" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="L74" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M74" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B75" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J75" s="6"/>
+      <c r="L75" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M75" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B76" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J76" s="6"/>
+      <c r="L76" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M76" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B77" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J77" s="6"/>
+      <c r="L77" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M77" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B78" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J78" s="6"/>
+      <c r="L78" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M78" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B79" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J79" s="6"/>
+      <c r="L79" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M79" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B80" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J80" s="6"/>
+      <c r="L80" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M80" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B81" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J81" s="6"/>
+      <c r="L81" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M81" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B82" s="4">
+        <v>45839</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J82" s="6"/>
+      <c r="L82" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M82" s="4">
+        <v>45953</v>
+      </c>
+      <c r="N82" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2822,7 +3999,273 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -2860,7 +4303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2883,7 +4326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -2926,7 +4369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -2964,7 +4407,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3028,258 +4495,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>